--- a/marker.xlsx
+++ b/marker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daisy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E46057A-66BE-44C5-B1C3-BBA34848091F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4860E9D-945F-47BC-B604-122DB8A33D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{349899C1-B98F-413C-92A2-8F63592603E3}"/>
   </bookViews>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="41">
-  <si>
-    <t>Tissue Class</t>
-  </si>
-  <si>
-    <t>Cell name</t>
-  </si>
-  <si>
-    <t>Cell marker</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
   <si>
     <t>Mammary gland</t>
   </si>
@@ -77,9 +68,6 @@
     <t>T cell</t>
   </si>
   <si>
-    <t>Cd3e</t>
-  </si>
-  <si>
     <t>Basal cell</t>
   </si>
   <si>
@@ -159,19 +147,49 @@
   </si>
   <si>
     <t>Tpsb2</t>
+  </si>
+  <si>
+    <t>tissueType</t>
+  </si>
+  <si>
+    <t>cellName</t>
+  </si>
+  <si>
+    <t>geneSymbolmore1</t>
+  </si>
+  <si>
+    <t>geneSymbolmore2</t>
+  </si>
+  <si>
+    <t>shortName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,15 +209,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F4CCC46B-2949-4990-A3D6-47613EB7E51E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,288 +554,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D91D6AB-343B-4109-BD8F-B530D8E2E4B2}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C16" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1">
         <v>45934</v>
@@ -820,112 +847,112 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
         <v>3</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/marker.xlsx
+++ b/marker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daisy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4860E9D-945F-47BC-B604-122DB8A33D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA954FA-8051-420A-96C1-0C4B44E8FD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{349899C1-B98F-413C-92A2-8F63592603E3}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
-  <si>
-    <t>Mammary gland</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>Luminal progenitor cell</t>
   </si>
@@ -50,21 +47,12 @@
     <t>Progenitor cell</t>
   </si>
   <si>
-    <t>Breast</t>
-  </si>
-  <si>
-    <t>Mammary stem cell</t>
-  </si>
-  <si>
     <t>CD24</t>
   </si>
   <si>
     <t>Stem cell</t>
   </si>
   <si>
-    <t>CD29</t>
-  </si>
-  <si>
     <t>T cell</t>
   </si>
   <si>
@@ -89,21 +77,12 @@
     <t>CK5</t>
   </si>
   <si>
-    <t>Mammary Gland</t>
-  </si>
-  <si>
     <t>Endothelial cell</t>
   </si>
   <si>
     <t>Esam</t>
   </si>
   <si>
-    <t>Cancer cell</t>
-  </si>
-  <si>
-    <t>HER2</t>
-  </si>
-  <si>
     <t>Epithelial cell</t>
   </si>
   <si>
@@ -125,9 +104,6 @@
     <t>Pecaml</t>
   </si>
   <si>
-    <t>Procr</t>
-  </si>
-  <si>
     <t>Neutrophil</t>
   </si>
   <si>
@@ -162,6 +138,9 @@
   </si>
   <si>
     <t>shortName</t>
+  </si>
+  <si>
+    <t>Mammary</t>
   </si>
 </sst>
 </file>
@@ -554,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D91D6AB-343B-4109-BD8F-B530D8E2E4B2}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,93 +548,90 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -663,84 +639,87 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -748,211 +727,145 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45934</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1">
-        <v>45934</v>
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
